--- a/Train/Assets/Data_Story/Test_Local.xlsx
+++ b/Train/Assets/Data_Story/Test_Local.xlsx
@@ -332,6 +332,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="5" max="5" width="35.13"/>
+    <col customWidth="1" min="6" max="6" width="28.75"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -418,7 +422,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -438,7 +442,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>6</v>
@@ -458,7 +462,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>10</v>
